--- a/Old_OLE_2023_summary.xlsx
+++ b/Old_OLE_2023_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C6F84DF-10F5-486B-A2E9-607F99CBCD53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5482CD51-8012-4D53-8877-BF1A59DA2B89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="By Statement Type" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>ALL OTHER STATEMENT TYPES</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>ALL CATEGORIES</t>
+  </si>
+  <si>
+    <t>Confidential?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -724,13 +733,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,6 +772,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,7 +822,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1114,378 +1143,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="E20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="E22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="10">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="E25" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="E26" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+      <c r="E28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="E29" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+      <c r="E30" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="E31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="10">
         <v>2</v>
       </c>
+      <c r="E32" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f>SUM(C2:C32)</f>
         <v>448</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1495,83 +1626,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="11">
         <f>SUM('By Statement Type'!C2:C9)</f>
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <f>SUM('By Statement Type'!C10:C13)</f>
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <f>SUM('By Statement Type'!C14:C17)</f>
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <f>SUM('By Statement Type'!C18:C21)</f>
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <f>SUM('By Statement Type'!C22:C23)</f>
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <f>SUM('By Statement Type'!C24:C32)</f>
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
         <v>448</v>
       </c>

--- a/Old_OLE_2023_summary.xlsx
+++ b/Old_OLE_2023_summary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5482CD51-8012-4D53-8877-BF1A59DA2B89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C56C71-7C31-4C5B-8126-4C4F91A2E8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Statement Type" sheetId="1" r:id="rId1"/>
     <sheet name="By Old OLE Category" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -35,9 +35,6 @@
     <t>IR/IU</t>
   </si>
   <si>
-    <t>Inadequate Accomodations</t>
-  </si>
-  <si>
     <t>Miscellaneous Violations</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Amendment 80</t>
   </si>
   <si>
-    <t>Catcher Processer Longline</t>
-  </si>
-  <si>
     <t>IFQ Retention</t>
   </si>
   <si>
@@ -156,12 +150,18 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Inadequate Accommodations</t>
+  </si>
+  <si>
+    <t>Catcher Processor Longline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1142,11 +1142,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,16 +1159,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1196,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1210,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1246,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -1274,335 +1274,335 @@
         <v>0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6">
         <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
         <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8">
         <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>8</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8">
         <v>14</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="9">
         <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="C23" s="9">
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="10">
         <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="C25" s="10">
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="10">
         <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="10">
         <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="10">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.35">
@@ -1623,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,10 +1638,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1655,7 +1655,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6">
         <f>SUM('By Statement Type'!C10:C13)</f>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7">
         <f>SUM('By Statement Type'!C14:C17)</f>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8">
         <f>SUM('By Statement Type'!C18:C21)</f>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9">
         <f>SUM('By Statement Type'!C22:C23)</f>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10">
         <f>SUM('By Statement Type'!C24:C32)</f>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>

--- a/Old_OLE_2023_summary.xlsx
+++ b/Old_OLE_2023_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron.VanHorn\Work\GitHub\AnnRpt-FMA-OLE-Chapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C56C71-7C31-4C5B-8126-4C4F91A2E8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5991D-6884-4DA1-BEF8-801D03B40CF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Statement Type" sheetId="1" r:id="rId1"/>
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1154,6 +1154,7 @@
     <col min="1" max="1" width="19.6328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.1796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1319,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>42</v>
@@ -1333,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>42</v>
@@ -1417,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>42</v>
@@ -1608,7 +1609,7 @@
     <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="2">
         <f>SUM(C2:C32)</f>
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -1626,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1677,7 +1678,7 @@
       </c>
       <c r="B5" s="8">
         <f>SUM('By Statement Type'!C18:C21)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1704,7 +1705,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
